--- a/Materias/Informacion en las Organizaciones/TP/TP-presupuesto/Presupuesto 2010.xlsx
+++ b/Materias/Informacion en las Organizaciones/TP/TP-presupuesto/Presupuesto 2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15480" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="96">
   <si>
     <t>1.- Pronóstico de Ventas</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Ventas</t>
   </si>
   <si>
-    <t>- Costos variables (MP, MO directa)</t>
-  </si>
-  <si>
     <t>- Intereses</t>
   </si>
   <si>
@@ -258,6 +255,120 @@
   </si>
   <si>
     <t>Materia prima por unidad de producto X</t>
+  </si>
+  <si>
+    <t>4. Standard de produccion</t>
+  </si>
+  <si>
+    <t>Mano de Obra</t>
+  </si>
+  <si>
+    <t>HH / U prod.</t>
+  </si>
+  <si>
+    <t>Proceso 1</t>
+  </si>
+  <si>
+    <t>Un equipo de 4 personas producen</t>
+  </si>
+  <si>
+    <t>Un equipo de 3 personas producen</t>
+  </si>
+  <si>
+    <t>100 unidades p/turno</t>
+  </si>
+  <si>
+    <t>102 unidades p/turno</t>
+  </si>
+  <si>
+    <t>Remuneración Bruta Promedio 10 $/h</t>
+  </si>
+  <si>
+    <t>Remuneración Bruta Promedio 12 $/h</t>
+  </si>
+  <si>
+    <t>Proceso 2</t>
+  </si>
+  <si>
+    <t>Un equipo de 5 personas producen</t>
+  </si>
+  <si>
+    <t>80 unidades p/turno</t>
+  </si>
+  <si>
+    <t>82 unidades p/turno</t>
+  </si>
+  <si>
+    <t>Remuneración Bruta Promedio 7 $/h</t>
+  </si>
+  <si>
+    <t>Remuneración Bruta Promedio 8 $/h</t>
+  </si>
+  <si>
+    <t>Equipos</t>
+  </si>
+  <si>
+    <t>Lunes aViernes trabajan 8 hs por turno, Sáb. 4 horas</t>
+  </si>
+  <si>
+    <t>Para completar los gastos de Aguinaldo , Obra social ,  Aportes patronales, Provisión por despido y Vacaciones, se asume el 80%  de la remuneración Bruta</t>
+  </si>
+  <si>
+    <t>(Este es un indice que se calcula para cada empresa en función de multiples variables)</t>
+  </si>
+  <si>
+    <t>x 1 unidad</t>
+  </si>
+  <si>
+    <t>Proc 1</t>
+  </si>
+  <si>
+    <t>5.- Inversiones</t>
+  </si>
+  <si>
+    <t>De acuerdo a los planes de la empresa se renovarán equipos por  $ 95.000.- En la Orden de compra con el provedor los equipos y su montaje se pagan a partir de Abril en 5 cuotas iguales y mensuales.</t>
+  </si>
+  <si>
+    <t>6.- Gastos Generales de Fabricación</t>
+  </si>
+  <si>
+    <t>Mantenimiento:  $ 8.700 por mes salvo en E, F y M que se incrementan en $ 2.000</t>
+  </si>
+  <si>
+    <t>Gastos Generales: supervisión, insumos y otros gastos no vinculados directamente a la variación de la cantidad producida se han previsto en $ 14.500.- mensuales.</t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>G.Grales</t>
+  </si>
+  <si>
+    <t>Totales</t>
+  </si>
+  <si>
+    <t>7.- Gastos Generales de Administración y Ventas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos generales de Administración  se han previsto en $ 95.000.- mensuales. </t>
+  </si>
+  <si>
+    <t>Gastos de Comercialización: son el 5 % del monto de venta y se desembolsan dos meses antes de que se efectue la venta</t>
+  </si>
+  <si>
+    <t>Gral Admin</t>
+  </si>
+  <si>
+    <t>Comercializacion</t>
+  </si>
+  <si>
+    <t>dic</t>
+  </si>
+  <si>
+    <t>(ingreso del financiero)</t>
   </si>
 </sst>
 </file>
@@ -266,9 +377,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +415,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -319,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -388,16 +509,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -417,16 +702,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:O70"/>
+  <dimension ref="A3:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -734,7 +1130,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -754,153 +1150,153 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2200</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2296.8000000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2210</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>2252.25</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>2350</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>2326.5</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>2275</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>1984.95</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>2100</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>2277</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>2325</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>2252.25</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <f>SUM(C11:N11)</f>
         <v>26849.75</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>594</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>792</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>630</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>683.1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>544.5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>1050</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>965.25</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>1025</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>594</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>8777.85</v>
       </c>
     </row>
@@ -908,19 +1304,19 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" t="s">
@@ -931,432 +1327,440 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+    <row r="17" spans="1:16">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="B18" s="4" t="s">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>C11*1100</f>
         <v>2420000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" ref="D18:N18" si="0">D11*1100</f>
         <v>2526480</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>2431000</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>2477475</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>2585000</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>2559150</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
         <v>2502500</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>2183445</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="0"/>
         <v>2310000</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="0"/>
         <v>2504700</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f t="shared" si="0"/>
         <v>2557500</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f t="shared" si="0"/>
         <v>2477475</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <f>SUM(C18:N18)</f>
         <v>29534725</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:16">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>C12*1600</f>
         <v>950400</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" ref="D19:N19" si="1">D12*1600</f>
         <v>960000</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>1267200</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>1008000</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>1092960</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>1120000</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>871200</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
         <v>1544400</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>1640000</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f t="shared" si="1"/>
         <v>950400</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <f t="shared" si="1"/>
         <v>960000</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <f>SUM(C19:N19)</f>
         <v>14044560</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:16">
+      <c r="B20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <f>SUM(C18:C19)</f>
         <v>3370400</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <f t="shared" ref="D20:N20" si="2">SUM(D18:D19)</f>
         <v>3486480</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f t="shared" si="2"/>
         <v>3698200</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <f t="shared" si="2"/>
         <v>3485475</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <f t="shared" si="2"/>
         <v>3677960</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <f t="shared" si="2"/>
         <v>3679150</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="2"/>
         <v>3373700</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <f t="shared" si="2"/>
         <v>3863445</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <f t="shared" si="2"/>
         <v>3854400</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <f t="shared" si="2"/>
         <v>4144700</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <f t="shared" si="2"/>
         <v>3507900</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <f t="shared" si="2"/>
         <v>3437475</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <f>O19+O18</f>
         <v>43579285</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:16">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>0.98</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="1:16">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:16">
+      <c r="B31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f>C$20*50%</f>
         <v>1685200</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" ref="D31:O32" si="3">D$20*50%</f>
+      <c r="D31" s="6">
+        <f t="shared" ref="D31:P32" si="3">D$20*50%</f>
         <v>1743240</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="3"/>
         <v>1849100</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="3"/>
         <v>1742737.5</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f t="shared" si="3"/>
         <v>1838980</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="3"/>
         <v>1839575</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f t="shared" si="3"/>
         <v>1686850</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f t="shared" si="3"/>
         <v>1931722.5</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f t="shared" si="3"/>
         <v>1927200</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="3"/>
         <v>2072350</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <f t="shared" si="3"/>
         <v>1753950</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <f t="shared" si="3"/>
         <v>1718737.5</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <f t="shared" si="3"/>
         <v>21789642.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:16">
+      <c r="B32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="6">
         <f>C$20*50%</f>
         <v>1685200</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="3"/>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:P32" si="4">D$20*50%</f>
         <v>1743240</v>
       </c>
-      <c r="E32" s="7">
-        <f t="shared" si="3"/>
+      <c r="F32" s="6">
+        <f t="shared" si="4"/>
         <v>1849100</v>
       </c>
-      <c r="F32" s="7">
-        <f t="shared" si="3"/>
+      <c r="G32" s="6">
+        <f t="shared" si="4"/>
         <v>1742737.5</v>
       </c>
-      <c r="G32" s="7">
-        <f t="shared" si="3"/>
+      <c r="H32" s="6">
+        <f t="shared" si="4"/>
         <v>1838980</v>
       </c>
-      <c r="H32" s="7">
-        <f t="shared" si="3"/>
+      <c r="I32" s="6">
+        <f t="shared" si="4"/>
         <v>1839575</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" si="3"/>
+      <c r="J32" s="6">
+        <f t="shared" si="4"/>
         <v>1686850</v>
       </c>
-      <c r="J32" s="7">
-        <f t="shared" si="3"/>
+      <c r="K32" s="6">
+        <f t="shared" si="4"/>
         <v>1931722.5</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="3"/>
+      <c r="L32" s="6">
+        <f t="shared" si="4"/>
         <v>1927200</v>
       </c>
-      <c r="L32" s="7">
-        <f t="shared" si="3"/>
+      <c r="M32" s="6">
+        <f t="shared" si="4"/>
         <v>2072350</v>
       </c>
-      <c r="M32" s="7">
-        <f t="shared" si="3"/>
+      <c r="N32" s="6">
+        <f t="shared" si="4"/>
         <v>1753950</v>
       </c>
-      <c r="N32" s="7">
-        <f t="shared" si="3"/>
+      <c r="O32" s="6">
+        <f t="shared" si="4"/>
         <v>1718737.5</v>
       </c>
-      <c r="O32" s="7">
-        <f t="shared" si="3"/>
+      <c r="P32" s="6">
+        <f t="shared" si="4"/>
         <v>21789642.5</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1366,101 +1770,101 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f>98%*C$20</f>
         <v>3302992</v>
       </c>
-      <c r="D38" s="7">
-        <f t="shared" ref="D38:O38" si="4">98%*D$20</f>
+      <c r="D38" s="6">
+        <f t="shared" ref="D38:O38" si="5">98%*D$20</f>
         <v>3416750.4</v>
       </c>
-      <c r="E38" s="7">
-        <f t="shared" si="4"/>
+      <c r="E38" s="6">
+        <f t="shared" si="5"/>
         <v>3624236</v>
       </c>
-      <c r="F38" s="7">
-        <f t="shared" si="4"/>
+      <c r="F38" s="6">
+        <f t="shared" si="5"/>
         <v>3415765.5</v>
       </c>
-      <c r="G38" s="7">
-        <f t="shared" si="4"/>
+      <c r="G38" s="6">
+        <f t="shared" si="5"/>
         <v>3604400.8</v>
       </c>
-      <c r="H38" s="7">
-        <f t="shared" si="4"/>
+      <c r="H38" s="6">
+        <f t="shared" si="5"/>
         <v>3605567</v>
       </c>
-      <c r="I38" s="7">
-        <f t="shared" si="4"/>
+      <c r="I38" s="6">
+        <f t="shared" si="5"/>
         <v>3306226</v>
       </c>
-      <c r="J38" s="7">
-        <f t="shared" si="4"/>
+      <c r="J38" s="6">
+        <f t="shared" si="5"/>
         <v>3786176.1</v>
       </c>
-      <c r="K38" s="7">
-        <f t="shared" si="4"/>
+      <c r="K38" s="6">
+        <f t="shared" si="5"/>
         <v>3777312</v>
       </c>
-      <c r="L38" s="7">
-        <f t="shared" si="4"/>
+      <c r="L38" s="6">
+        <f t="shared" si="5"/>
         <v>4061806</v>
       </c>
-      <c r="M38" s="7">
-        <f t="shared" si="4"/>
+      <c r="M38" s="6">
+        <f t="shared" si="5"/>
         <v>3437742</v>
       </c>
-      <c r="N38" s="7">
-        <f t="shared" si="4"/>
+      <c r="N38" s="6">
+        <f t="shared" si="5"/>
         <v>3368725.5</v>
       </c>
-      <c r="O38" s="7">
-        <f t="shared" si="4"/>
+      <c r="O38" s="6">
+        <f t="shared" si="5"/>
         <v>42707699.299999997</v>
       </c>
     </row>
@@ -1470,101 +1874,101 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="7">
-        <f>0.5%*C$20</f>
-        <v>16852</v>
-      </c>
-      <c r="D42" s="7">
-        <f t="shared" ref="D42:O42" si="5">0.5%*D$20</f>
+      <c r="C42" s="6">
+        <f>0.5%*C$38</f>
+        <v>16514.96</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" ref="D42:O42" si="6">0.5%*D$20</f>
         <v>17432.400000000001</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" si="5"/>
+      <c r="E42" s="6">
+        <f t="shared" si="6"/>
         <v>18491</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" si="5"/>
+      <c r="F42" s="6">
+        <f t="shared" si="6"/>
         <v>17427.375</v>
       </c>
-      <c r="G42" s="7">
-        <f t="shared" si="5"/>
+      <c r="G42" s="6">
+        <f t="shared" si="6"/>
         <v>18389.8</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" si="5"/>
+      <c r="H42" s="6">
+        <f t="shared" si="6"/>
         <v>18395.75</v>
       </c>
-      <c r="I42" s="7">
-        <f t="shared" si="5"/>
+      <c r="I42" s="6">
+        <f t="shared" si="6"/>
         <v>16868.5</v>
       </c>
-      <c r="J42" s="7">
-        <f t="shared" si="5"/>
+      <c r="J42" s="6">
+        <f t="shared" si="6"/>
         <v>19317.225000000002</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" si="5"/>
+      <c r="K42" s="6">
+        <f t="shared" si="6"/>
         <v>19272</v>
       </c>
-      <c r="L42" s="7">
-        <f t="shared" si="5"/>
+      <c r="L42" s="6">
+        <f t="shared" si="6"/>
         <v>20723.5</v>
       </c>
-      <c r="M42" s="7">
-        <f t="shared" si="5"/>
+      <c r="M42" s="6">
+        <f t="shared" si="6"/>
         <v>17539.5</v>
       </c>
-      <c r="N42" s="7">
-        <f t="shared" si="5"/>
+      <c r="N42" s="6">
+        <f t="shared" si="6"/>
         <v>17187.375</v>
       </c>
-      <c r="O42" s="7">
-        <f t="shared" si="5"/>
+      <c r="O42" s="6">
+        <f t="shared" si="6"/>
         <v>217896.42500000002</v>
       </c>
     </row>
@@ -1583,507 +1987,1283 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="1:14">
       <c r="B50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:14">
+      <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="1:14">
+      <c r="B52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <f>ROUNDUP(20%*D11,0)</f>
         <v>460</v>
       </c>
-      <c r="D52" s="3">
-        <f t="shared" ref="D52:M52" si="6">ROUNDUP(20%*E11,0)</f>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52:M52" si="7">ROUNDUP(20%*E11,0)</f>
         <v>442</v>
       </c>
-      <c r="E52" s="3">
-        <f t="shared" si="6"/>
+      <c r="E52" s="2">
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
-      <c r="F52" s="3">
-        <f t="shared" si="6"/>
+      <c r="F52" s="2">
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
-      <c r="G52" s="3">
-        <f t="shared" si="6"/>
+      <c r="G52" s="2">
+        <f t="shared" si="7"/>
         <v>466</v>
       </c>
-      <c r="H52" s="3">
-        <f t="shared" si="6"/>
+      <c r="H52" s="2">
+        <f t="shared" si="7"/>
         <v>455</v>
       </c>
-      <c r="I52" s="3">
-        <f t="shared" si="6"/>
+      <c r="I52" s="2">
+        <f t="shared" si="7"/>
         <v>397</v>
       </c>
-      <c r="J52" s="3">
-        <f t="shared" si="6"/>
+      <c r="J52" s="2">
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
-      <c r="K52" s="3">
-        <f t="shared" si="6"/>
+      <c r="K52" s="2">
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
-      <c r="L52" s="3">
-        <f t="shared" si="6"/>
+      <c r="L52" s="2">
+        <f t="shared" si="7"/>
         <v>465</v>
       </c>
-      <c r="M52" s="3">
-        <f t="shared" si="6"/>
+      <c r="M52" s="2">
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <f>ROUNDUP(20%*C11*1.05,0)</f>
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:14">
+      <c r="B53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <f>ROUNDUP(20%*D12,0)</f>
         <v>120</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" ref="D53:M53" si="7">ROUNDUP(20%*E12,0)</f>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:M53" si="8">ROUNDUP(20%*E12,0)</f>
         <v>159</v>
       </c>
-      <c r="E53" s="3">
-        <f t="shared" si="7"/>
+      <c r="E53" s="2">
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="F53" s="3">
-        <f t="shared" si="7"/>
+      <c r="F53" s="2">
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="G53" s="3">
-        <f t="shared" si="7"/>
+      <c r="G53" s="2">
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="H53" s="3">
-        <f t="shared" si="7"/>
+      <c r="H53" s="2">
+        <f t="shared" si="8"/>
         <v>109</v>
       </c>
-      <c r="I53" s="3">
-        <f t="shared" si="7"/>
+      <c r="I53" s="2">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="J53" s="3">
-        <f t="shared" si="7"/>
+      <c r="J53" s="2">
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
-      <c r="K53" s="3">
-        <f t="shared" si="7"/>
+      <c r="K53" s="2">
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
-      <c r="L53" s="3">
-        <f t="shared" si="7"/>
+      <c r="L53" s="2">
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
-      <c r="M53" s="3">
-        <f t="shared" si="7"/>
+      <c r="M53" s="2">
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="2">
         <f>ROUNDUP(20%*C12*1.05,0)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:14">
+      <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <f>C52+C53</f>
         <v>580</v>
       </c>
-      <c r="D54" s="3">
-        <f t="shared" ref="D54:N54" si="8">D52+D53</f>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:N54" si="9">D52+D53</f>
         <v>601</v>
       </c>
-      <c r="E54" s="3">
-        <f t="shared" si="8"/>
+      <c r="E54" s="2">
+        <f t="shared" si="9"/>
         <v>577</v>
       </c>
-      <c r="F54" s="3">
-        <f t="shared" si="8"/>
+      <c r="F54" s="2">
+        <f t="shared" si="9"/>
         <v>607</v>
       </c>
-      <c r="G54" s="3">
-        <f t="shared" si="8"/>
+      <c r="G54" s="2">
+        <f t="shared" si="9"/>
         <v>606</v>
       </c>
-      <c r="H54" s="3">
-        <f t="shared" si="8"/>
+      <c r="H54" s="2">
+        <f t="shared" si="9"/>
         <v>564</v>
       </c>
-      <c r="I54" s="3">
-        <f t="shared" si="8"/>
+      <c r="I54" s="2">
+        <f t="shared" si="9"/>
         <v>607</v>
       </c>
-      <c r="J54" s="3">
-        <f t="shared" si="8"/>
+      <c r="J54" s="2">
+        <f t="shared" si="9"/>
         <v>614</v>
       </c>
-      <c r="K54" s="3">
-        <f t="shared" si="8"/>
+      <c r="K54" s="2">
+        <f t="shared" si="9"/>
         <v>661</v>
       </c>
-      <c r="L54" s="3">
-        <f t="shared" si="8"/>
+      <c r="L54" s="2">
+        <f t="shared" si="9"/>
         <v>584</v>
       </c>
-      <c r="M54" s="3">
-        <f t="shared" si="8"/>
+      <c r="M54" s="2">
+        <f t="shared" si="9"/>
         <v>571</v>
       </c>
-      <c r="N54" s="3">
-        <f t="shared" si="8"/>
+      <c r="N54" s="2">
+        <f t="shared" si="9"/>
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14">
+    <row r="55" spans="1:14">
+      <c r="B55" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="B57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="1:14">
+      <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:14">
+      <c r="B59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="19">
         <f>(ROUNDUP(10%*D$11,0))*($E$69*$F$69+$E$70*$F$70)</f>
         <v>45310</v>
       </c>
-      <c r="D59" s="23">
-        <f t="shared" ref="D59:N59" si="9">(ROUNDUP(10%*E$11,0))*($E$69*$F$69+$E$70*$F$70)</f>
+      <c r="D59" s="19">
+        <f t="shared" ref="D59:M59" si="10">(ROUNDUP(10%*E$11,0))*($E$69*$F$69+$E$70*$F$70)</f>
         <v>43537</v>
       </c>
-      <c r="E59" s="23">
-        <f t="shared" si="9"/>
+      <c r="E59" s="19">
+        <f t="shared" si="10"/>
         <v>44522</v>
       </c>
-      <c r="F59" s="23">
-        <f t="shared" si="9"/>
+      <c r="F59" s="19">
+        <f t="shared" si="10"/>
         <v>46295</v>
       </c>
-      <c r="G59" s="23">
-        <f t="shared" si="9"/>
+      <c r="G59" s="19">
+        <f t="shared" si="10"/>
         <v>45901</v>
       </c>
-      <c r="H59" s="23">
-        <f t="shared" si="9"/>
+      <c r="H59" s="19">
+        <f t="shared" si="10"/>
         <v>44916</v>
       </c>
-      <c r="I59" s="23">
-        <f t="shared" si="9"/>
+      <c r="I59" s="19">
+        <f t="shared" si="10"/>
         <v>39203</v>
       </c>
-      <c r="J59" s="23">
-        <f t="shared" si="9"/>
+      <c r="J59" s="19">
+        <f t="shared" si="10"/>
         <v>41370</v>
       </c>
-      <c r="K59" s="23">
-        <f t="shared" si="9"/>
+      <c r="K59" s="19">
+        <f t="shared" si="10"/>
         <v>44916</v>
       </c>
-      <c r="L59" s="23">
-        <f t="shared" si="9"/>
+      <c r="L59" s="19">
+        <f t="shared" si="10"/>
         <v>45901</v>
       </c>
-      <c r="M59" s="23">
-        <f t="shared" si="9"/>
+      <c r="M59" s="19">
+        <f t="shared" si="10"/>
         <v>44522</v>
       </c>
-      <c r="N59" s="23">
+      <c r="N59" s="19">
         <f>(ROUNDUP(10%*C11*1.05,0))*($E$69*$F$69+$E$70*$F$70)</f>
         <v>45507</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:14">
+      <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="19">
         <f>(ROUNDUP(10%*D$11,0))*($H$69*$I$69+$H$70*$I$70)</f>
         <v>61180</v>
       </c>
-      <c r="D60" s="23">
-        <f t="shared" ref="D60:N60" si="10">(ROUNDUP(10%*E$11,0))*($H$69*$I$69+$H$70*$I$70)</f>
+      <c r="D60" s="19">
+        <f t="shared" ref="D60:M60" si="11">(ROUNDUP(10%*E$11,0))*($H$69*$I$69+$H$70*$I$70)</f>
         <v>58786</v>
       </c>
-      <c r="E60" s="23">
-        <f t="shared" si="10"/>
+      <c r="E60" s="19">
+        <f t="shared" si="11"/>
         <v>60116</v>
       </c>
-      <c r="F60" s="23">
-        <f t="shared" si="10"/>
+      <c r="F60" s="19">
+        <f t="shared" si="11"/>
         <v>62510</v>
       </c>
-      <c r="G60" s="23">
-        <f t="shared" si="10"/>
+      <c r="G60" s="19">
+        <f t="shared" si="11"/>
         <v>61978</v>
       </c>
-      <c r="H60" s="23">
-        <f t="shared" si="10"/>
+      <c r="H60" s="19">
+        <f t="shared" si="11"/>
         <v>60648</v>
       </c>
-      <c r="I60" s="23">
-        <f t="shared" si="10"/>
+      <c r="I60" s="19">
+        <f t="shared" si="11"/>
         <v>52934</v>
       </c>
-      <c r="J60" s="23">
-        <f t="shared" si="10"/>
+      <c r="J60" s="19">
+        <f t="shared" si="11"/>
         <v>55860</v>
       </c>
-      <c r="K60" s="23">
-        <f t="shared" si="10"/>
+      <c r="K60" s="19">
+        <f t="shared" si="11"/>
         <v>60648</v>
       </c>
-      <c r="L60" s="23">
-        <f t="shared" si="10"/>
+      <c r="L60" s="19">
+        <f t="shared" si="11"/>
         <v>61978</v>
       </c>
-      <c r="M60" s="23">
-        <f t="shared" si="10"/>
+      <c r="M60" s="19">
+        <f t="shared" si="11"/>
         <v>60116</v>
       </c>
-      <c r="N60" s="23">
+      <c r="N60" s="19">
         <f>(ROUNDUP(10%*C11*1.05,0))*($H$69*$I$69+$H$70*$I$70)</f>
         <v>61446</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:14">
+      <c r="B61" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="19">
         <f>C60+C59</f>
         <v>106490</v>
       </c>
-      <c r="D61" s="23">
-        <f t="shared" ref="D61:N61" si="11">D60+D59</f>
+      <c r="D61" s="19">
+        <f t="shared" ref="D61:N61" si="12">D60+D59</f>
         <v>102323</v>
       </c>
-      <c r="E61" s="23">
-        <f t="shared" si="11"/>
+      <c r="E61" s="19">
+        <f t="shared" si="12"/>
         <v>104638</v>
       </c>
-      <c r="F61" s="23">
-        <f t="shared" si="11"/>
+      <c r="F61" s="19">
+        <f t="shared" si="12"/>
         <v>108805</v>
       </c>
-      <c r="G61" s="23">
-        <f t="shared" si="11"/>
+      <c r="G61" s="19">
+        <f t="shared" si="12"/>
         <v>107879</v>
       </c>
-      <c r="H61" s="23">
-        <f t="shared" si="11"/>
+      <c r="H61" s="19">
+        <f t="shared" si="12"/>
         <v>105564</v>
       </c>
-      <c r="I61" s="23">
-        <f t="shared" si="11"/>
+      <c r="I61" s="19">
+        <f t="shared" si="12"/>
         <v>92137</v>
       </c>
-      <c r="J61" s="23">
-        <f t="shared" si="11"/>
+      <c r="J61" s="19">
+        <f t="shared" si="12"/>
         <v>97230</v>
       </c>
-      <c r="K61" s="23">
-        <f t="shared" si="11"/>
+      <c r="K61" s="19">
+        <f t="shared" si="12"/>
         <v>105564</v>
       </c>
-      <c r="L61" s="23">
-        <f t="shared" si="11"/>
+      <c r="L61" s="19">
+        <f t="shared" si="12"/>
         <v>107879</v>
       </c>
-      <c r="M61" s="23">
-        <f t="shared" si="11"/>
+      <c r="M61" s="19">
+        <f t="shared" si="12"/>
         <v>104638</v>
       </c>
-      <c r="N61" s="23">
-        <f t="shared" si="11"/>
+      <c r="N61" s="19">
+        <f t="shared" si="12"/>
         <v>106953</v>
       </c>
     </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="8" t="s">
+    <row r="62" spans="1:14">
+      <c r="B62" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="D67" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="D68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="D67" s="20" t="s">
+      <c r="F68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="D68" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="H68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+      <c r="H69" s="2">
+        <v>20</v>
+      </c>
+      <c r="I69" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2">
+        <v>9</v>
+      </c>
+      <c r="G70" s="2">
+        <v>4</v>
+      </c>
+      <c r="H70" s="2">
+        <v>21</v>
+      </c>
+      <c r="I70" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="73" spans="1:11">
+      <c r="B73" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="29"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B74" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="34"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="39"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="39"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="46"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="48"/>
+      <c r="D78" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="39"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="47"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="39"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B80" s="49"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="39"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="B81" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="55"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B82" s="56"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="60"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="B85" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="B86" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="62"/>
+      <c r="J94" s="62"/>
+      <c r="K94" s="62"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="62"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="62"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="62"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="3">
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="B99" s="19">
+        <v>0</v>
+      </c>
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="19">
+        <v>0</v>
+      </c>
+      <c r="E99" s="19">
+        <v>19000</v>
+      </c>
+      <c r="F99" s="19">
+        <v>19000</v>
+      </c>
+      <c r="G99" s="19">
+        <v>19000</v>
+      </c>
+      <c r="H99" s="19">
+        <v>19000</v>
+      </c>
+      <c r="I99" s="19">
+        <v>19000</v>
+      </c>
+      <c r="J99" s="19">
+        <v>0</v>
+      </c>
+      <c r="K99" s="19">
+        <v>0</v>
+      </c>
+      <c r="L99" s="19">
+        <v>0</v>
+      </c>
+      <c r="M99" s="19">
+        <v>0</v>
+      </c>
+      <c r="N99" s="19">
+        <f>SUM(B99:M99)</f>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="3">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3">
-        <v>20</v>
-      </c>
-      <c r="I69" s="3">
+      <c r="D107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O107" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
+    <row r="108" spans="1:15">
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="19">
+        <v>10700</v>
+      </c>
+      <c r="D108" s="19">
+        <v>10700</v>
+      </c>
+      <c r="E108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="F108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="G108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="H108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="I108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="J108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="K108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="L108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="M108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="N108" s="19">
+        <v>8700</v>
+      </c>
+      <c r="O108" s="19">
+        <f>SUM(C108:N108)</f>
+        <v>108400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="D109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="E109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="F109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="G109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="H109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="I109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="J109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="K109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="L109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="M109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="N109" s="19">
+        <v>14500</v>
+      </c>
+      <c r="O109" s="19">
+        <f>SUM(C109:N109)</f>
+        <v>174000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="19">
+        <f>C109+C108</f>
+        <v>25200</v>
+      </c>
+      <c r="D110" s="19">
+        <f t="shared" ref="D110:O110" si="13">D109+D108</f>
+        <v>25200</v>
+      </c>
+      <c r="E110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="F110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="G110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="H110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="I110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="J110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="K110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="L110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="M110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="N110" s="19">
+        <f t="shared" si="13"/>
+        <v>23200</v>
+      </c>
+      <c r="O110" s="65">
+        <f t="shared" si="13"/>
+        <v>282400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="3">
-        <v>9</v>
-      </c>
-      <c r="G70" s="3">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3">
-        <v>21</v>
-      </c>
-      <c r="I70" s="3">
-        <v>6</v>
+      <c r="I119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O119" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="D120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="E120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="F120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="G120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="H120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="I120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="J120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="K120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="L120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="M120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="N120" s="19">
+        <v>95000</v>
+      </c>
+      <c r="O120" s="19">
+        <f>SUM(C120:N120)</f>
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="B121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="19">
+        <f>5%*E19</f>
+        <v>63360</v>
+      </c>
+      <c r="D121" s="19">
+        <f t="shared" ref="D121:N121" si="14">5%*F19</f>
+        <v>50400</v>
+      </c>
+      <c r="E121" s="19">
+        <f t="shared" si="14"/>
+        <v>54648</v>
+      </c>
+      <c r="F121" s="19">
+        <f t="shared" si="14"/>
+        <v>56000</v>
+      </c>
+      <c r="G121" s="19">
+        <f t="shared" si="14"/>
+        <v>43560</v>
+      </c>
+      <c r="H121" s="19">
+        <f t="shared" si="14"/>
+        <v>84000</v>
+      </c>
+      <c r="I121" s="19">
+        <f t="shared" si="14"/>
+        <v>77220</v>
+      </c>
+      <c r="J121" s="19">
+        <f t="shared" si="14"/>
+        <v>82000</v>
+      </c>
+      <c r="K121" s="19">
+        <f t="shared" si="14"/>
+        <v>47520</v>
+      </c>
+      <c r="L121" s="19">
+        <f t="shared" si="14"/>
+        <v>48000</v>
+      </c>
+      <c r="M121" s="19">
+        <f>5%*C19*1.05</f>
+        <v>49896</v>
+      </c>
+      <c r="N121" s="19">
+        <f>5%*D19*1.05</f>
+        <v>50400</v>
+      </c>
+      <c r="O121" s="19">
+        <f>SUM(C121:N121)</f>
+        <v>707004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="19">
+        <f>C121+C120</f>
+        <v>158360</v>
+      </c>
+      <c r="D122" s="19">
+        <f t="shared" ref="D122" si="15">D121+D120</f>
+        <v>145400</v>
+      </c>
+      <c r="E122" s="19">
+        <f t="shared" ref="E122" si="16">E121+E120</f>
+        <v>149648</v>
+      </c>
+      <c r="F122" s="19">
+        <f t="shared" ref="F122" si="17">F121+F120</f>
+        <v>151000</v>
+      </c>
+      <c r="G122" s="19">
+        <f t="shared" ref="G122" si="18">G121+G120</f>
+        <v>138560</v>
+      </c>
+      <c r="H122" s="19">
+        <f t="shared" ref="H122" si="19">H121+H120</f>
+        <v>179000</v>
+      </c>
+      <c r="I122" s="19">
+        <f t="shared" ref="I122" si="20">I121+I120</f>
+        <v>172220</v>
+      </c>
+      <c r="J122" s="19">
+        <f t="shared" ref="J122" si="21">J121+J120</f>
+        <v>177000</v>
+      </c>
+      <c r="K122" s="19">
+        <f t="shared" ref="K122" si="22">K121+K120</f>
+        <v>142520</v>
+      </c>
+      <c r="L122" s="19">
+        <f t="shared" ref="L122" si="23">L121+L120</f>
+        <v>143000</v>
+      </c>
+      <c r="M122" s="19">
+        <f t="shared" ref="M122" si="24">M121+M120</f>
+        <v>144896</v>
+      </c>
+      <c r="N122" s="19">
+        <f t="shared" ref="N122" si="25">N121+N120</f>
+        <v>145400</v>
+      </c>
+      <c r="O122" s="65">
+        <f t="shared" ref="O122" si="26">O121+O120</f>
+        <v>1847004</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="23">
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="D81:K82"/>
+    <mergeCell ref="A94:K95"/>
+    <mergeCell ref="B78:C80"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="B75:C77"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H77:K77"/>
     <mergeCell ref="G67:I67"/>
     <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:G74"/>
+    <mergeCell ref="H73:K74"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2096,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:H19"/>
+  <dimension ref="C3:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2109,125 +3289,138 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="3:8">
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="3:8">
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="18">
-        <v>43579285</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="D10" s="17">
+        <v>42707699.299999997</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" t="str">
+        <f>"--&gt; es lo facturado!!!"</f>
+        <v>--&gt; es lo facturado!!!</v>
+      </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C12" s="16" t="s">
-        <v>45</v>
+      <c r="C11" s="16" t="str">
+        <f>"- Costos variables (MP, MO directa, Gasto grales de fab)"</f>
+        <v>- Costos variables (MP, MO directa, Gasto grales de fab)</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="16" t="str">
+        <f>"- Incobrabilidad"</f>
+        <v>- Incobrabilidad</v>
       </c>
       <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="9">
-        <f>D10-D11-D12</f>
-        <v>43579285</v>
-      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D10-D11-D13</f>
+        <v>42707699.299999997</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C16" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="9">
-        <f>D13-D14-D15</f>
-        <v>43579285</v>
-      </c>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="15.75" thickBot="1">
-      <c r="C18" s="16" t="str">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8">
+        <f>D14-D15-D16</f>
+        <v>42707699.299999997</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.75" thickBot="1">
+      <c r="C19" s="15" t="str">
         <f>"- Impuestos  (35% UB)"</f>
         <v>- Impuestos  (35% UB)</v>
       </c>
-      <c r="D18" s="19">
-        <f>D16*0.35</f>
-        <v>15252749.749999998</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="9">
-        <f>D16-D17-D18</f>
-        <v>28326535.25</v>
+      <c r="D19" s="18">
+        <f>D17*0.35</f>
+        <v>14947694.754999997</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="8">
+        <f>D17-D18-D19</f>
+        <v>27760004.545000002</v>
       </c>
     </row>
   </sheetData>
